--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323454DF-355C-47F8-833D-6D62C6190949}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C937BA-2A32-429B-B180-2F14EE1C7A3A}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="2385" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>userid</t>
   </si>
@@ -43,6 +43,90 @@
   </si>
   <si>
     <t>pdf</t>
+  </si>
+  <si>
+    <t>이상률</t>
+  </si>
+  <si>
+    <t>32373</t>
+  </si>
+  <si>
+    <t>이영승</t>
+  </si>
+  <si>
+    <t>82027</t>
+  </si>
+  <si>
+    <t>이영일</t>
+  </si>
+  <si>
+    <t>56455</t>
+  </si>
+  <si>
+    <t>강재병</t>
+  </si>
+  <si>
+    <t>28869</t>
+  </si>
+  <si>
+    <t>서원</t>
+  </si>
+  <si>
+    <t>11065</t>
+  </si>
+  <si>
+    <t>반재호</t>
+  </si>
+  <si>
+    <t>65903</t>
+  </si>
+  <si>
+    <t>송순천</t>
+  </si>
+  <si>
+    <t>46327</t>
+  </si>
+  <si>
+    <t>최재경</t>
+  </si>
+  <si>
+    <t>33130</t>
+  </si>
+  <si>
+    <t>유재철</t>
+  </si>
+  <si>
+    <t>27154</t>
+  </si>
+  <si>
+    <t>송영선</t>
+  </si>
+  <si>
+    <t>74395</t>
+  </si>
+  <si>
+    <t>조상숙</t>
+  </si>
+  <si>
+    <t>39673</t>
+  </si>
+  <si>
+    <t>김상태</t>
+  </si>
+  <si>
+    <t>43168</t>
+  </si>
+  <si>
+    <t>추윤식</t>
+  </si>
+  <si>
+    <t>24261</t>
+  </si>
+  <si>
+    <t>오현석</t>
+  </si>
+  <si>
+    <t>53103</t>
   </si>
 </sst>
 </file>
@@ -281,1114 +365,752 @@
             <v>71319</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v/>
-          </cell>
-          <cell r="B21" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v/>
-          </cell>
-          <cell r="B22" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v/>
-          </cell>
-          <cell r="B23" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v/>
-          </cell>
-          <cell r="B24" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v/>
-          </cell>
-          <cell r="B25" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v/>
-          </cell>
-          <cell r="B26" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v/>
-          </cell>
-          <cell r="B27" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v/>
-          </cell>
-          <cell r="B28" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v/>
-          </cell>
-          <cell r="B29" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v/>
-          </cell>
-          <cell r="B30" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v/>
-          </cell>
-          <cell r="B31" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v/>
-          </cell>
-          <cell r="B32" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v/>
-          </cell>
-          <cell r="B33" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v/>
-          </cell>
-          <cell r="B34" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
         <row r="35">
-          <cell r="A35" t="str">
-            <v/>
-          </cell>
+          <cell r="A35"/>
           <cell r="B35" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="A36" t="str">
-            <v/>
-          </cell>
+          <cell r="A36"/>
           <cell r="B36" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="A37" t="str">
-            <v/>
-          </cell>
+          <cell r="A37"/>
           <cell r="B37" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="A38" t="str">
-            <v/>
-          </cell>
+          <cell r="A38"/>
           <cell r="B38" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v/>
-          </cell>
+          <cell r="A39"/>
           <cell r="B39" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="A40" t="str">
-            <v/>
-          </cell>
+          <cell r="A40"/>
           <cell r="B40" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="A41" t="str">
-            <v/>
-          </cell>
+          <cell r="A41"/>
           <cell r="B41" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="A42" t="str">
-            <v/>
-          </cell>
+          <cell r="A42"/>
           <cell r="B42" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="A43" t="str">
-            <v/>
-          </cell>
+          <cell r="A43"/>
           <cell r="B43" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="A44" t="str">
-            <v/>
-          </cell>
+          <cell r="A44"/>
           <cell r="B44" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="A45" t="str">
-            <v/>
-          </cell>
+          <cell r="A45"/>
           <cell r="B45" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="A46" t="str">
-            <v/>
-          </cell>
+          <cell r="A46"/>
           <cell r="B46" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v/>
-          </cell>
+          <cell r="A47"/>
           <cell r="B47" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="A48" t="str">
-            <v/>
-          </cell>
+          <cell r="A48"/>
           <cell r="B48" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="A49" t="str">
-            <v/>
-          </cell>
+          <cell r="A49"/>
           <cell r="B49" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="A50" t="str">
-            <v/>
-          </cell>
+          <cell r="A50"/>
           <cell r="B50" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="51">
-          <cell r="A51" t="str">
-            <v/>
-          </cell>
+          <cell r="A51"/>
           <cell r="B51" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="A52" t="str">
-            <v/>
-          </cell>
+          <cell r="A52"/>
           <cell r="B52" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="53">
-          <cell r="A53" t="str">
-            <v/>
-          </cell>
+          <cell r="A53"/>
           <cell r="B53" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="54">
-          <cell r="A54" t="str">
-            <v/>
-          </cell>
+          <cell r="A54"/>
           <cell r="B54" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="A55" t="str">
-            <v/>
-          </cell>
+          <cell r="A55"/>
           <cell r="B55" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="A56" t="str">
-            <v/>
-          </cell>
+          <cell r="A56"/>
           <cell r="B56" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="A57" t="str">
-            <v/>
-          </cell>
+          <cell r="A57"/>
           <cell r="B57" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="A58" t="str">
-            <v/>
-          </cell>
+          <cell r="A58"/>
           <cell r="B58" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="A59" t="str">
-            <v/>
-          </cell>
+          <cell r="A59"/>
           <cell r="B59" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="60">
-          <cell r="A60" t="str">
-            <v/>
-          </cell>
+          <cell r="A60"/>
           <cell r="B60" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="A61" t="str">
-            <v/>
-          </cell>
+          <cell r="A61"/>
           <cell r="B61" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="62">
-          <cell r="A62" t="str">
-            <v/>
-          </cell>
+          <cell r="A62"/>
           <cell r="B62" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="63">
-          <cell r="A63" t="str">
-            <v/>
-          </cell>
+          <cell r="A63"/>
           <cell r="B63" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="64">
-          <cell r="A64" t="str">
-            <v/>
-          </cell>
+          <cell r="A64"/>
           <cell r="B64" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="A65" t="str">
-            <v/>
-          </cell>
+          <cell r="A65"/>
           <cell r="B65" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="66">
-          <cell r="A66" t="str">
-            <v/>
-          </cell>
+          <cell r="A66"/>
           <cell r="B66" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="67">
-          <cell r="A67" t="str">
-            <v/>
-          </cell>
+          <cell r="A67"/>
           <cell r="B67" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="68">
-          <cell r="A68" t="str">
-            <v/>
-          </cell>
+          <cell r="A68"/>
           <cell r="B68" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="69">
-          <cell r="A69" t="str">
-            <v/>
-          </cell>
+          <cell r="A69"/>
           <cell r="B69" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="70">
-          <cell r="A70" t="str">
-            <v/>
-          </cell>
+          <cell r="A70"/>
           <cell r="B70" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="71">
-          <cell r="A71" t="str">
-            <v/>
-          </cell>
+          <cell r="A71"/>
           <cell r="B71" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="72">
-          <cell r="A72" t="str">
-            <v/>
-          </cell>
+          <cell r="A72"/>
           <cell r="B72" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="73">
-          <cell r="A73" t="str">
-            <v/>
-          </cell>
+          <cell r="A73"/>
           <cell r="B73" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="74">
-          <cell r="A74" t="str">
-            <v/>
-          </cell>
+          <cell r="A74"/>
           <cell r="B74" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="75">
-          <cell r="A75" t="str">
-            <v/>
-          </cell>
+          <cell r="A75"/>
           <cell r="B75" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="76">
-          <cell r="A76" t="str">
-            <v/>
-          </cell>
+          <cell r="A76"/>
           <cell r="B76" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="77">
-          <cell r="A77" t="str">
-            <v/>
-          </cell>
+          <cell r="A77"/>
           <cell r="B77" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="78">
-          <cell r="A78" t="str">
-            <v/>
-          </cell>
+          <cell r="A78"/>
           <cell r="B78" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="79">
-          <cell r="A79" t="str">
-            <v/>
-          </cell>
+          <cell r="A79"/>
           <cell r="B79" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="80">
-          <cell r="A80" t="str">
-            <v/>
-          </cell>
+          <cell r="A80"/>
           <cell r="B80" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="81">
-          <cell r="A81" t="str">
-            <v/>
-          </cell>
+          <cell r="A81"/>
           <cell r="B81" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="82">
-          <cell r="A82" t="str">
-            <v/>
-          </cell>
+          <cell r="A82"/>
           <cell r="B82" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="83">
-          <cell r="A83" t="str">
-            <v/>
-          </cell>
+          <cell r="A83"/>
           <cell r="B83" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="84">
-          <cell r="A84" t="str">
-            <v/>
-          </cell>
+          <cell r="A84"/>
           <cell r="B84" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="85">
-          <cell r="A85" t="str">
-            <v/>
-          </cell>
+          <cell r="A85"/>
           <cell r="B85" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="86">
-          <cell r="A86" t="str">
-            <v/>
-          </cell>
+          <cell r="A86"/>
           <cell r="B86" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="87">
-          <cell r="A87" t="str">
-            <v/>
-          </cell>
+          <cell r="A87"/>
           <cell r="B87" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="88">
-          <cell r="A88" t="str">
-            <v/>
-          </cell>
+          <cell r="A88"/>
           <cell r="B88" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="89">
-          <cell r="A89" t="str">
-            <v/>
-          </cell>
+          <cell r="A89"/>
           <cell r="B89" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="90">
-          <cell r="A90" t="str">
-            <v/>
-          </cell>
+          <cell r="A90"/>
           <cell r="B90" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="91">
-          <cell r="A91" t="str">
-            <v/>
-          </cell>
+          <cell r="A91"/>
           <cell r="B91" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="92">
-          <cell r="A92" t="str">
-            <v/>
-          </cell>
+          <cell r="A92"/>
           <cell r="B92" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="93">
-          <cell r="A93" t="str">
-            <v/>
-          </cell>
+          <cell r="A93"/>
           <cell r="B93" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="94">
-          <cell r="A94" t="str">
-            <v/>
-          </cell>
+          <cell r="A94"/>
           <cell r="B94" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="95">
-          <cell r="A95" t="str">
-            <v/>
-          </cell>
+          <cell r="A95"/>
           <cell r="B95" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="96">
-          <cell r="A96" t="str">
-            <v/>
-          </cell>
+          <cell r="A96"/>
           <cell r="B96" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="97">
-          <cell r="A97" t="str">
-            <v/>
-          </cell>
+          <cell r="A97"/>
           <cell r="B97" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="98">
-          <cell r="A98" t="str">
-            <v/>
-          </cell>
+          <cell r="A98"/>
           <cell r="B98" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="99">
-          <cell r="A99" t="str">
-            <v/>
-          </cell>
+          <cell r="A99"/>
           <cell r="B99" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="100">
-          <cell r="A100" t="str">
-            <v/>
-          </cell>
+          <cell r="A100"/>
           <cell r="B100" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="101">
-          <cell r="A101" t="str">
-            <v/>
-          </cell>
+          <cell r="A101"/>
           <cell r="B101" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="102">
-          <cell r="A102" t="str">
-            <v/>
-          </cell>
+          <cell r="A102"/>
           <cell r="B102" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="103">
-          <cell r="A103" t="str">
-            <v/>
-          </cell>
+          <cell r="A103"/>
           <cell r="B103" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="104">
-          <cell r="A104" t="str">
-            <v/>
-          </cell>
+          <cell r="A104"/>
           <cell r="B104" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="105">
-          <cell r="A105" t="str">
-            <v/>
-          </cell>
+          <cell r="A105"/>
           <cell r="B105" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="106">
-          <cell r="A106" t="str">
-            <v/>
-          </cell>
+          <cell r="A106"/>
           <cell r="B106" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="107">
-          <cell r="A107" t="str">
-            <v/>
-          </cell>
+          <cell r="A107"/>
           <cell r="B107" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="108">
-          <cell r="A108" t="str">
-            <v/>
-          </cell>
+          <cell r="A108"/>
           <cell r="B108" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="109">
-          <cell r="A109" t="str">
-            <v/>
-          </cell>
+          <cell r="A109"/>
           <cell r="B109" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="110">
-          <cell r="A110" t="str">
-            <v/>
-          </cell>
+          <cell r="A110"/>
           <cell r="B110" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="111">
-          <cell r="A111" t="str">
-            <v/>
-          </cell>
+          <cell r="A111"/>
           <cell r="B111" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="112">
-          <cell r="A112" t="str">
-            <v/>
-          </cell>
+          <cell r="A112"/>
           <cell r="B112" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="113">
-          <cell r="A113" t="str">
-            <v/>
-          </cell>
+          <cell r="A113"/>
           <cell r="B113" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="114">
-          <cell r="A114" t="str">
-            <v/>
-          </cell>
+          <cell r="A114"/>
           <cell r="B114" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="115">
-          <cell r="A115" t="str">
-            <v/>
-          </cell>
+          <cell r="A115"/>
           <cell r="B115" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="116">
-          <cell r="A116" t="str">
-            <v/>
-          </cell>
+          <cell r="A116"/>
           <cell r="B116" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="117">
-          <cell r="A117" t="str">
-            <v/>
-          </cell>
+          <cell r="A117"/>
           <cell r="B117" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="118">
-          <cell r="A118" t="str">
-            <v/>
-          </cell>
+          <cell r="A118"/>
           <cell r="B118" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="119">
-          <cell r="A119" t="str">
-            <v/>
-          </cell>
+          <cell r="A119"/>
           <cell r="B119" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="120">
-          <cell r="A120" t="str">
-            <v/>
-          </cell>
+          <cell r="A120"/>
           <cell r="B120" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="121">
-          <cell r="A121" t="str">
-            <v/>
-          </cell>
+          <cell r="A121"/>
           <cell r="B121" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="122">
-          <cell r="A122" t="str">
-            <v/>
-          </cell>
+          <cell r="A122"/>
           <cell r="B122" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="123">
-          <cell r="A123" t="str">
-            <v/>
-          </cell>
+          <cell r="A123"/>
           <cell r="B123" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="124">
-          <cell r="A124" t="str">
-            <v/>
-          </cell>
+          <cell r="A124"/>
           <cell r="B124" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="125">
-          <cell r="A125" t="str">
-            <v/>
-          </cell>
+          <cell r="A125"/>
           <cell r="B125" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="126">
-          <cell r="A126" t="str">
-            <v/>
-          </cell>
+          <cell r="A126"/>
           <cell r="B126" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="127">
-          <cell r="A127" t="str">
-            <v/>
-          </cell>
+          <cell r="A127"/>
           <cell r="B127" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="128">
-          <cell r="A128" t="str">
-            <v/>
-          </cell>
+          <cell r="A128"/>
           <cell r="B128" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="129">
-          <cell r="A129" t="str">
-            <v/>
-          </cell>
+          <cell r="A129"/>
           <cell r="B129" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="130">
-          <cell r="A130" t="str">
-            <v/>
-          </cell>
+          <cell r="A130"/>
           <cell r="B130" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="131">
-          <cell r="A131" t="str">
-            <v/>
-          </cell>
+          <cell r="A131"/>
           <cell r="B131" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="132">
-          <cell r="A132" t="str">
-            <v/>
-          </cell>
+          <cell r="A132"/>
           <cell r="B132" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="133">
-          <cell r="A133" t="str">
-            <v/>
-          </cell>
+          <cell r="A133"/>
           <cell r="B133" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="134">
-          <cell r="A134" t="str">
-            <v/>
-          </cell>
+          <cell r="A134"/>
           <cell r="B134" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="135">
-          <cell r="A135" t="str">
-            <v/>
-          </cell>
+          <cell r="A135"/>
           <cell r="B135" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="136">
-          <cell r="A136" t="str">
-            <v/>
-          </cell>
+          <cell r="A136"/>
           <cell r="B136" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="137">
-          <cell r="A137" t="str">
-            <v/>
-          </cell>
+          <cell r="A137"/>
           <cell r="B137" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="138">
-          <cell r="A138" t="str">
-            <v/>
-          </cell>
+          <cell r="A138"/>
           <cell r="B138" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="139">
-          <cell r="A139" t="str">
-            <v/>
-          </cell>
+          <cell r="A139"/>
           <cell r="B139" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="140">
-          <cell r="A140" t="str">
-            <v/>
-          </cell>
+          <cell r="A140"/>
           <cell r="B140" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="141">
-          <cell r="A141" t="str">
-            <v/>
-          </cell>
+          <cell r="A141"/>
           <cell r="B141" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="142">
-          <cell r="A142" t="str">
-            <v/>
-          </cell>
+          <cell r="A142"/>
           <cell r="B142" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="143">
-          <cell r="A143" t="str">
-            <v/>
-          </cell>
+          <cell r="A143"/>
           <cell r="B143" t="e">
             <v>#N/A</v>
           </cell>
         </row>
         <row r="144">
-          <cell r="A144" t="str">
-            <v/>
-          </cell>
+          <cell r="A144"/>
           <cell r="B144">
             <v>0</v>
           </cell>
         </row>
         <row r="145">
-          <cell r="A145" t="str">
-            <v/>
-          </cell>
+          <cell r="A145"/>
           <cell r="B145">
             <v>0</v>
           </cell>
         </row>
         <row r="146">
-          <cell r="A146" t="str">
-            <v/>
-          </cell>
+          <cell r="A146"/>
           <cell r="B146">
             <v>0</v>
           </cell>
         </row>
         <row r="147">
-          <cell r="A147" t="str">
-            <v/>
-          </cell>
+          <cell r="A147"/>
           <cell r="B147">
             <v>0</v>
           </cell>
         </row>
         <row r="148">
-          <cell r="A148" t="str">
-            <v/>
-          </cell>
+          <cell r="A148"/>
           <cell r="B148">
             <v>0</v>
           </cell>
         </row>
         <row r="149">
-          <cell r="A149" t="str">
-            <v/>
-          </cell>
+          <cell r="A149"/>
           <cell r="B149">
             <v>0</v>
           </cell>
         </row>
         <row r="150">
-          <cell r="A150" t="str">
-            <v/>
-          </cell>
+          <cell r="A150"/>
           <cell r="B150">
             <v>0</v>
           </cell>
         </row>
         <row r="151">
-          <cell r="A151" t="str">
-            <v/>
-          </cell>
+          <cell r="A151"/>
           <cell r="B151">
             <v>0</v>
           </cell>
         </row>
         <row r="152">
-          <cell r="A152" t="str">
-            <v/>
-          </cell>
+          <cell r="A152"/>
           <cell r="B152">
             <v>0</v>
           </cell>
         </row>
         <row r="153">
-          <cell r="A153" t="str">
-            <v/>
-          </cell>
+          <cell r="A153"/>
           <cell r="B153">
             <v>0</v>
           </cell>
         </row>
         <row r="154">
-          <cell r="A154" t="str">
-            <v/>
-          </cell>
+          <cell r="A154"/>
           <cell r="B154">
             <v>0</v>
           </cell>
         </row>
         <row r="155">
-          <cell r="A155" t="str">
-            <v/>
-          </cell>
+          <cell r="A155"/>
           <cell r="B155">
             <v>0</v>
           </cell>
         </row>
         <row r="156">
-          <cell r="A156" t="str">
-            <v/>
-          </cell>
+          <cell r="A156"/>
           <cell r="B156">
             <v>0</v>
           </cell>
         </row>
         <row r="157">
-          <cell r="A157" t="str">
-            <v/>
-          </cell>
+          <cell r="A157"/>
           <cell r="B157">
             <v>0</v>
           </cell>
         </row>
         <row r="158">
-          <cell r="A158" t="str">
-            <v/>
-          </cell>
+          <cell r="A158"/>
           <cell r="B158">
             <v>0</v>
           </cell>
         </row>
         <row r="159">
-          <cell r="A159" t="str">
-            <v/>
-          </cell>
+          <cell r="A159"/>
           <cell r="B159">
             <v>0</v>
           </cell>
@@ -1688,8 +1410,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1989,205 +1711,177 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="str">
-        <f>[1]값목록!A21</f>
-        <v/>
-      </c>
-      <c r="B22" s="1" t="e">
-        <f>[1]값목록!B21</f>
-        <v>#N/A</v>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>이상률.pdf</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="str">
-        <f>[1]값목록!A22</f>
-        <v/>
-      </c>
-      <c r="B23" s="1" t="e">
-        <f>[1]값목록!B22</f>
-        <v>#N/A</v>
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>이영승.pdf</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="str">
-        <f>[1]값목록!A23</f>
-        <v/>
-      </c>
-      <c r="B24" s="1" t="e">
-        <f>[1]값목록!B23</f>
-        <v>#N/A</v>
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>이영일.pdf</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="str">
-        <f>[1]값목록!A24</f>
-        <v/>
-      </c>
-      <c r="B25" s="1" t="e">
-        <f>[1]값목록!B24</f>
-        <v>#N/A</v>
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>강재병.pdf</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="str">
-        <f>[1]값목록!A25</f>
-        <v/>
-      </c>
-      <c r="B26" s="1" t="e">
-        <f>[1]값목록!B25</f>
-        <v>#N/A</v>
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>서원.pdf</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="str">
-        <f>[1]값목록!A26</f>
-        <v/>
-      </c>
-      <c r="B27" s="1" t="e">
-        <f>[1]값목록!B26</f>
-        <v>#N/A</v>
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>반재호.pdf</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="str">
-        <f>[1]값목록!A27</f>
-        <v/>
-      </c>
-      <c r="B28" s="1" t="e">
-        <f>[1]값목록!B27</f>
-        <v>#N/A</v>
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>송순천.pdf</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="str">
-        <f>[1]값목록!A28</f>
-        <v/>
-      </c>
-      <c r="B29" s="1" t="e">
-        <f>[1]값목록!B28</f>
-        <v>#N/A</v>
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>최재경.pdf</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="str">
-        <f>[1]값목록!A29</f>
-        <v/>
-      </c>
-      <c r="B30" s="1" t="e">
-        <f>[1]값목록!B29</f>
-        <v>#N/A</v>
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>유재철.pdf</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="str">
-        <f>[1]값목록!A30</f>
-        <v/>
-      </c>
-      <c r="B31" s="1" t="e">
-        <f>[1]값목록!B30</f>
-        <v>#N/A</v>
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>송영선.pdf</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="str">
-        <f>[1]값목록!A31</f>
-        <v/>
-      </c>
-      <c r="B32" s="1" t="e">
-        <f>[1]값목록!B31</f>
-        <v>#N/A</v>
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>조상숙.pdf</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="str">
-        <f>[1]값목록!A32</f>
-        <v/>
-      </c>
-      <c r="B33" s="1" t="e">
-        <f>[1]값목록!B32</f>
-        <v>#N/A</v>
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김상태.pdf</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="str">
-        <f>[1]값목록!A33</f>
-        <v/>
-      </c>
-      <c r="B34" s="1" t="e">
-        <f>[1]값목록!B33</f>
-        <v>#N/A</v>
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>추윤식.pdf</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="str">
-        <f>[1]값목록!A34</f>
-        <v/>
-      </c>
-      <c r="B35" s="1" t="e">
-        <f>[1]값목록!B34</f>
-        <v>#N/A</v>
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>오현석.pdf</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="str">
+      <c r="A36" s="1">
         <f>[1]값목록!A35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="e">
         <f>[1]값목록!B35</f>
@@ -2195,13 +1889,13 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="str">
+      <c r="A37" s="1">
         <f>[1]값목록!A36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="e">
         <f>[1]값목록!B36</f>
@@ -2209,13 +1903,13 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="str">
+      <c r="A38" s="1">
         <f>[1]값목록!A37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="e">
         <f>[1]값목록!B37</f>
@@ -2223,13 +1917,13 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="str">
+      <c r="A39" s="1">
         <f>[1]값목록!A38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="e">
         <f>[1]값목록!B38</f>
@@ -2237,13 +1931,13 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="str">
+      <c r="A40" s="1">
         <f>[1]값목록!A39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="e">
         <f>[1]값목록!B39</f>
@@ -2251,13 +1945,13 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="str">
+      <c r="A41" s="1">
         <f>[1]값목록!A40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="e">
         <f>[1]값목록!B40</f>
@@ -2265,13 +1959,13 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="str">
+      <c r="A42" s="1">
         <f>[1]값목록!A41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="e">
         <f>[1]값목록!B41</f>
@@ -2279,13 +1973,13 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="str">
+      <c r="A43" s="1">
         <f>[1]값목록!A42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="e">
         <f>[1]값목록!B42</f>
@@ -2293,13 +1987,13 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="str">
+      <c r="A44" s="1">
         <f>[1]값목록!A43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="e">
         <f>[1]값목록!B43</f>
@@ -2307,13 +2001,13 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="str">
+      <c r="A45" s="1">
         <f>[1]값목록!A44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="e">
         <f>[1]값목록!B44</f>
@@ -2321,13 +2015,13 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="str">
+      <c r="A46" s="1">
         <f>[1]값목록!A45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="e">
         <f>[1]값목록!B45</f>
@@ -2335,13 +2029,13 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="str">
+      <c r="A47" s="1">
         <f>[1]값목록!A46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="e">
         <f>[1]값목록!B46</f>
@@ -2349,13 +2043,13 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="str">
+      <c r="A48" s="1">
         <f>[1]값목록!A47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="e">
         <f>[1]값목록!B47</f>
@@ -2363,13 +2057,13 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="str">
+      <c r="A49" s="1">
         <f>[1]값목록!A48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="e">
         <f>[1]값목록!B48</f>
@@ -2377,13 +2071,13 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="str">
+      <c r="A50" s="1">
         <f>[1]값목록!A49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="e">
         <f>[1]값목록!B49</f>
@@ -2391,13 +2085,13 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="str">
+      <c r="A51" s="1">
         <f>[1]값목록!A50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="e">
         <f>[1]값목록!B50</f>
@@ -2405,13 +2099,13 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="str">
+      <c r="A52" s="1">
         <f>[1]값목록!A51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="e">
         <f>[1]값목록!B51</f>
@@ -2419,13 +2113,13 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="str">
+      <c r="A53" s="1">
         <f>[1]값목록!A52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="e">
         <f>[1]값목록!B52</f>
@@ -2433,13 +2127,13 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="str">
+      <c r="A54" s="1">
         <f>[1]값목록!A53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="e">
         <f>[1]값목록!B53</f>
@@ -2447,13 +2141,13 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="str">
+      <c r="A55" s="1">
         <f>[1]값목록!A54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="e">
         <f>[1]값목록!B54</f>
@@ -2461,13 +2155,13 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="str">
+      <c r="A56" s="1">
         <f>[1]값목록!A55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="e">
         <f>[1]값목록!B55</f>
@@ -2475,13 +2169,13 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="str">
+      <c r="A57" s="1">
         <f>[1]값목록!A56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="e">
         <f>[1]값목록!B56</f>
@@ -2489,13 +2183,13 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="str">
+      <c r="A58" s="1">
         <f>[1]값목록!A57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B58" s="1" t="e">
         <f>[1]값목록!B57</f>
@@ -2503,13 +2197,13 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="str">
+      <c r="A59" s="1">
         <f>[1]값목록!A58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="e">
         <f>[1]값목록!B58</f>
@@ -2517,13 +2211,13 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="str">
+      <c r="A60" s="1">
         <f>[1]값목록!A59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="e">
         <f>[1]값목록!B59</f>
@@ -2531,13 +2225,13 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="str">
+      <c r="A61" s="1">
         <f>[1]값목록!A60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B61" s="1" t="e">
         <f>[1]값목록!B60</f>
@@ -2545,13 +2239,13 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="str">
+      <c r="A62" s="1">
         <f>[1]값목록!A61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="e">
         <f>[1]값목록!B61</f>
@@ -2559,13 +2253,13 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="str">
+      <c r="A63" s="1">
         <f>[1]값목록!A62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="e">
         <f>[1]값목록!B62</f>
@@ -2573,13 +2267,13 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="str">
+      <c r="A64" s="1">
         <f>[1]값목록!A63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="e">
         <f>[1]값목록!B63</f>
@@ -2587,13 +2281,13 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="str">
+      <c r="A65" s="1">
         <f>[1]값목록!A64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="e">
         <f>[1]값목록!B64</f>
@@ -2601,13 +2295,13 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="str">
+      <c r="A66" s="1">
         <f>[1]값목록!A65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="e">
         <f>[1]값목록!B65</f>
@@ -2615,13 +2309,13 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="str">
+      <c r="A67" s="1">
         <f>[1]값목록!A66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B67" s="1" t="e">
         <f>[1]값목록!B66</f>
@@ -2629,13 +2323,13 @@
       </c>
       <c r="C67" t="str">
         <f>A67&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="str">
+      <c r="A68" s="1">
         <f>[1]값목록!A67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="e">
         <f>[1]값목록!B67</f>
@@ -2643,13 +2337,13 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="str">
+      <c r="A69" s="1">
         <f>[1]값목록!A68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="e">
         <f>[1]값목록!B68</f>
@@ -2657,13 +2351,13 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ref="C69:C81" si="1">A69&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="str">
+      <c r="A70" s="1">
         <f>[1]값목록!A69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="e">
         <f>[1]값목록!B69</f>
@@ -2671,13 +2365,13 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="str">
+      <c r="A71" s="1">
         <f>[1]값목록!A70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B71" s="1" t="e">
         <f>[1]값목록!B70</f>
@@ -2685,13 +2379,13 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="str">
+      <c r="A72" s="1">
         <f>[1]값목록!A71</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B72" s="1" t="e">
         <f>[1]값목록!B71</f>
@@ -2699,13 +2393,13 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="str">
+      <c r="A73" s="1">
         <f>[1]값목록!A72</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B73" s="1" t="e">
         <f>[1]값목록!B72</f>
@@ -2713,13 +2407,13 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="str">
+      <c r="A74" s="1">
         <f>[1]값목록!A73</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B74" s="1" t="e">
         <f>[1]값목록!B73</f>
@@ -2727,13 +2421,13 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="str">
+      <c r="A75" s="1">
         <f>[1]값목록!A74</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="e">
         <f>[1]값목록!B74</f>
@@ -2741,13 +2435,13 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="str">
+      <c r="A76" s="1">
         <f>[1]값목록!A75</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B76" s="1" t="e">
         <f>[1]값목록!B75</f>
@@ -2755,13 +2449,13 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="str">
+      <c r="A77" s="1">
         <f>[1]값목록!A76</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B77" s="1" t="e">
         <f>[1]값목록!B76</f>
@@ -2769,13 +2463,13 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="str">
+      <c r="A78" s="1">
         <f>[1]값목록!A77</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B78" s="1" t="e">
         <f>[1]값목록!B77</f>
@@ -2783,13 +2477,13 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="str">
+      <c r="A79" s="1">
         <f>[1]값목록!A78</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B79" s="1" t="e">
         <f>[1]값목록!B78</f>
@@ -2797,13 +2491,13 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="str">
+      <c r="A80" s="1">
         <f>[1]값목록!A79</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B80" s="1" t="e">
         <f>[1]값목록!B79</f>
@@ -2811,13 +2505,13 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="str">
+      <c r="A81" s="1">
         <f>[1]값목록!A80</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B81" s="1" t="e">
         <f>[1]값목록!B80</f>
@@ -2825,13 +2519,13 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="str">
+      <c r="A82" s="1">
         <f>[1]값목록!A81</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B82" s="1" t="e">
         <f>[1]값목록!B81</f>
@@ -2839,13 +2533,13 @@
       </c>
       <c r="C82" t="str">
         <f>A82&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="str">
+      <c r="A83" s="1">
         <f>[1]값목록!A82</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B83" s="1" t="e">
         <f>[1]값목록!B82</f>
@@ -2853,13 +2547,13 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ref="C83:C117" si="2">A83&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="str">
+      <c r="A84" s="1">
         <f>[1]값목록!A83</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="e">
         <f>[1]값목록!B83</f>
@@ -2867,13 +2561,13 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="str">
+      <c r="A85" s="1">
         <f>[1]값목록!A84</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B85" s="1" t="e">
         <f>[1]값목록!B84</f>
@@ -2881,13 +2575,13 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="str">
+      <c r="A86" s="1">
         <f>[1]값목록!A85</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B86" s="1" t="e">
         <f>[1]값목록!B85</f>
@@ -2895,13 +2589,13 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="str">
+      <c r="A87" s="1">
         <f>[1]값목록!A86</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B87" s="1" t="e">
         <f>[1]값목록!B86</f>
@@ -2909,13 +2603,13 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="str">
+      <c r="A88" s="1">
         <f>[1]값목록!A87</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B88" s="1" t="e">
         <f>[1]값목록!B87</f>
@@ -2923,13 +2617,13 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="str">
+      <c r="A89" s="1">
         <f>[1]값목록!A88</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B89" s="1" t="e">
         <f>[1]값목록!B88</f>
@@ -2937,13 +2631,13 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="str">
+      <c r="A90" s="1">
         <f>[1]값목록!A89</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B90" s="1" t="e">
         <f>[1]값목록!B89</f>
@@ -2951,13 +2645,13 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="str">
+      <c r="A91" s="1">
         <f>[1]값목록!A90</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="e">
         <f>[1]값목록!B90</f>
@@ -2965,13 +2659,13 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="str">
+      <c r="A92" s="1">
         <f>[1]값목록!A91</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B92" s="1" t="e">
         <f>[1]값목록!B91</f>
@@ -2979,13 +2673,13 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="str">
+      <c r="A93" s="1">
         <f>[1]값목록!A92</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B93" s="1" t="e">
         <f>[1]값목록!B92</f>
@@ -2993,13 +2687,13 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="str">
+      <c r="A94" s="1">
         <f>[1]값목록!A93</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="e">
         <f>[1]값목록!B93</f>
@@ -3007,13 +2701,13 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="str">
+      <c r="A95" s="1">
         <f>[1]값목록!A94</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B95" s="1" t="e">
         <f>[1]값목록!B94</f>
@@ -3021,13 +2715,13 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="str">
+      <c r="A96" s="1">
         <f>[1]값목록!A95</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B96" s="1" t="e">
         <f>[1]값목록!B95</f>
@@ -3035,13 +2729,13 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="str">
+      <c r="A97" s="1">
         <f>[1]값목록!A96</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B97" s="1" t="e">
         <f>[1]값목록!B96</f>
@@ -3049,13 +2743,13 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="str">
+      <c r="A98" s="1">
         <f>[1]값목록!A97</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="e">
         <f>[1]값목록!B97</f>
@@ -3063,13 +2757,13 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="str">
+      <c r="A99" s="1">
         <f>[1]값목록!A98</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="e">
         <f>[1]값목록!B98</f>
@@ -3077,13 +2771,13 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="str">
+      <c r="A100" s="1">
         <f>[1]값목록!A99</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B100" s="1" t="e">
         <f>[1]값목록!B99</f>
@@ -3091,13 +2785,13 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="str">
+      <c r="A101" s="1">
         <f>[1]값목록!A100</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="e">
         <f>[1]값목록!B100</f>
@@ -3105,13 +2799,13 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="str">
+      <c r="A102" s="1">
         <f>[1]값목록!A101</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B102" s="1" t="e">
         <f>[1]값목록!B101</f>
@@ -3119,13 +2813,13 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="str">
+      <c r="A103" s="1">
         <f>[1]값목록!A102</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B103" s="1" t="e">
         <f>[1]값목록!B102</f>
@@ -3133,13 +2827,13 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="str">
+      <c r="A104" s="1">
         <f>[1]값목록!A103</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="e">
         <f>[1]값목록!B103</f>
@@ -3147,13 +2841,13 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="str">
+      <c r="A105" s="1">
         <f>[1]값목록!A104</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B105" s="1" t="e">
         <f>[1]값목록!B104</f>
@@ -3161,13 +2855,13 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="str">
+      <c r="A106" s="1">
         <f>[1]값목록!A105</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="e">
         <f>[1]값목록!B105</f>
@@ -3175,13 +2869,13 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="str">
+      <c r="A107" s="1">
         <f>[1]값목록!A106</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="e">
         <f>[1]값목록!B106</f>
@@ -3189,13 +2883,13 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="str">
+      <c r="A108" s="1">
         <f>[1]값목록!A107</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B108" s="1" t="e">
         <f>[1]값목록!B107</f>
@@ -3203,13 +2897,13 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="str">
+      <c r="A109" s="1">
         <f>[1]값목록!A108</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B109" s="1" t="e">
         <f>[1]값목록!B108</f>
@@ -3217,13 +2911,13 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="str">
+      <c r="A110" s="1">
         <f>[1]값목록!A109</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B110" s="1" t="e">
         <f>[1]값목록!B109</f>
@@ -3231,13 +2925,13 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="str">
+      <c r="A111" s="1">
         <f>[1]값목록!A110</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B111" s="1" t="e">
         <f>[1]값목록!B110</f>
@@ -3245,13 +2939,13 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="str">
+      <c r="A112" s="1">
         <f>[1]값목록!A111</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B112" s="1" t="e">
         <f>[1]값목록!B111</f>
@@ -3259,13 +2953,13 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="str">
+      <c r="A113" s="1">
         <f>[1]값목록!A112</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B113" s="1" t="e">
         <f>[1]값목록!B112</f>
@@ -3273,13 +2967,13 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="str">
+      <c r="A114" s="1">
         <f>[1]값목록!A113</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B114" s="1" t="e">
         <f>[1]값목록!B113</f>
@@ -3287,13 +2981,13 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="str">
+      <c r="A115" s="1">
         <f>[1]값목록!A114</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B115" s="1" t="e">
         <f>[1]값목록!B114</f>
@@ -3301,13 +2995,13 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="str">
+      <c r="A116" s="1">
         <f>[1]값목록!A115</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B116" s="1" t="e">
         <f>[1]값목록!B115</f>
@@ -3315,13 +3009,13 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="str">
+      <c r="A117" s="1">
         <f>[1]값목록!A116</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B117" s="1" t="e">
         <f>[1]값목록!B116</f>
@@ -3329,13 +3023,13 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="2"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="str">
+      <c r="A118" s="1">
         <f>[1]값목록!A117</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B118" s="1" t="e">
         <f>[1]값목록!B117</f>
@@ -3343,13 +3037,13 @@
       </c>
       <c r="C118" t="str">
         <f>A118&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="str">
+      <c r="A119" s="1">
         <f>[1]값목록!A118</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B119" s="1" t="e">
         <f>[1]값목록!B118</f>
@@ -3357,13 +3051,13 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" ref="C119:C134" si="3">A119&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="str">
+      <c r="A120" s="1">
         <f>[1]값목록!A119</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B120" s="1" t="e">
         <f>[1]값목록!B119</f>
@@ -3371,13 +3065,13 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="str">
+      <c r="A121" s="1">
         <f>[1]값목록!A120</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B121" s="1" t="e">
         <f>[1]값목록!B120</f>
@@ -3385,13 +3079,13 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="str">
+      <c r="A122" s="1">
         <f>[1]값목록!A121</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B122" s="1" t="e">
         <f>[1]값목록!B121</f>
@@ -3399,13 +3093,13 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="str">
+      <c r="A123" s="1">
         <f>[1]값목록!A122</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B123" s="1" t="e">
         <f>[1]값목록!B122</f>
@@ -3413,13 +3107,13 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="str">
+      <c r="A124" s="1">
         <f>[1]값목록!A123</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B124" s="1" t="e">
         <f>[1]값목록!B123</f>
@@ -3427,13 +3121,13 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="str">
+      <c r="A125" s="1">
         <f>[1]값목록!A124</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B125" s="1" t="e">
         <f>[1]값목록!B124</f>
@@ -3441,13 +3135,13 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="str">
+      <c r="A126" s="1">
         <f>[1]값목록!A125</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B126" s="1" t="e">
         <f>[1]값목록!B125</f>
@@ -3455,13 +3149,13 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="str">
+      <c r="A127" s="1">
         <f>[1]값목록!A126</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B127" s="1" t="e">
         <f>[1]값목록!B126</f>
@@ -3469,13 +3163,13 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="str">
+      <c r="A128" s="1">
         <f>[1]값목록!A127</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B128" s="1" t="e">
         <f>[1]값목록!B127</f>
@@ -3483,13 +3177,13 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="str">
+      <c r="A129" s="1">
         <f>[1]값목록!A128</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B129" s="1" t="e">
         <f>[1]값목록!B128</f>
@@ -3497,13 +3191,13 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="str">
+      <c r="A130" s="1">
         <f>[1]값목록!A129</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B130" s="1" t="e">
         <f>[1]값목록!B129</f>
@@ -3511,13 +3205,13 @@
       </c>
       <c r="C130" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="str">
+      <c r="A131" s="1">
         <f>[1]값목록!A130</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B131" s="1" t="e">
         <f>[1]값목록!B130</f>
@@ -3525,13 +3219,13 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="str">
+      <c r="A132" s="1">
         <f>[1]값목록!A131</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B132" s="1" t="e">
         <f>[1]값목록!B131</f>
@@ -3539,13 +3233,13 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="str">
+      <c r="A133" s="1">
         <f>[1]값목록!A132</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B133" s="1" t="e">
         <f>[1]값목록!B132</f>
@@ -3553,13 +3247,13 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="str">
+      <c r="A134" s="1">
         <f>[1]값목록!A133</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B134" s="1" t="e">
         <f>[1]값목록!B133</f>
@@ -3567,13 +3261,13 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="3"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="str">
+      <c r="A135" s="1">
         <f>[1]값목록!A134</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B135" s="1" t="e">
         <f>[1]값목록!B134</f>
@@ -3581,13 +3275,13 @@
       </c>
       <c r="C135" t="str">
         <f>A135&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="str">
+      <c r="A136" s="1">
         <f>[1]값목록!A135</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B136" s="1" t="e">
         <f>[1]값목록!B135</f>
@@ -3595,13 +3289,13 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" ref="C136:C148" si="4">A136&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="str">
+      <c r="A137" s="1">
         <f>[1]값목록!A136</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B137" s="1" t="e">
         <f>[1]값목록!B136</f>
@@ -3609,13 +3303,13 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="str">
+      <c r="A138" s="1">
         <f>[1]값목록!A137</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B138" s="1" t="e">
         <f>[1]값목록!B137</f>
@@ -3623,13 +3317,13 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="str">
+      <c r="A139" s="1">
         <f>[1]값목록!A138</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B139" s="1" t="e">
         <f>[1]값목록!B138</f>
@@ -3637,13 +3331,13 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="str">
+      <c r="A140" s="1">
         <f>[1]값목록!A139</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B140" s="1" t="e">
         <f>[1]값목록!B139</f>
@@ -3651,13 +3345,13 @@
       </c>
       <c r="C140" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="str">
+      <c r="A141" s="1">
         <f>[1]값목록!A140</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B141" s="1" t="e">
         <f>[1]값목록!B140</f>
@@ -3665,13 +3359,13 @@
       </c>
       <c r="C141" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="str">
+      <c r="A142" s="1">
         <f>[1]값목록!A141</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B142" s="1" t="e">
         <f>[1]값목록!B141</f>
@@ -3679,13 +3373,13 @@
       </c>
       <c r="C142" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="str">
+      <c r="A143" s="1">
         <f>[1]값목록!A142</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B143" s="1" t="e">
         <f>[1]값목록!B142</f>
@@ -3693,13 +3387,13 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="str">
+      <c r="A144" s="1">
         <f>[1]값목록!A143</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B144" s="1" t="e">
         <f>[1]값목록!B143</f>
@@ -3707,13 +3401,13 @@
       </c>
       <c r="C144" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="str">
+      <c r="A145" s="1">
         <f>[1]값목록!A144</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B145" s="1">
         <f>[1]값목록!B144</f>
@@ -3721,13 +3415,13 @@
       </c>
       <c r="C145" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="str">
+      <c r="A146" s="1">
         <f>[1]값목록!A145</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B146" s="1">
         <f>[1]값목록!B145</f>
@@ -3735,13 +3429,13 @@
       </c>
       <c r="C146" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="str">
+      <c r="A147" s="1">
         <f>[1]값목록!A146</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B147" s="1">
         <f>[1]값목록!B146</f>
@@ -3749,13 +3443,13 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="str">
+      <c r="A148" s="1">
         <f>[1]값목록!A147</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B148" s="1">
         <f>[1]값목록!B147</f>
@@ -3763,13 +3457,13 @@
       </c>
       <c r="C148" t="str">
         <f t="shared" si="4"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="str">
+      <c r="A149" s="1">
         <f>[1]값목록!A148</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B149" s="1">
         <f>[1]값목록!B148</f>
@@ -3777,13 +3471,13 @@
       </c>
       <c r="C149" t="str">
         <f>A149&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="str">
+      <c r="A150" s="1">
         <f>[1]값목록!A149</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B150" s="1">
         <f>[1]값목록!B149</f>
@@ -3791,13 +3485,13 @@
       </c>
       <c r="C150" t="str">
         <f t="shared" ref="C150:C158" si="5">A150&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="str">
+      <c r="A151" s="1">
         <f>[1]값목록!A150</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B151" s="1">
         <f>[1]값목록!B150</f>
@@ -3805,13 +3499,13 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="str">
+      <c r="A152" s="1">
         <f>[1]값목록!A151</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B152" s="1">
         <f>[1]값목록!B151</f>
@@ -3819,13 +3513,13 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="str">
+      <c r="A153" s="1">
         <f>[1]값목록!A152</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B153" s="1">
         <f>[1]값목록!B152</f>
@@ -3833,13 +3527,13 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="str">
+      <c r="A154" s="1">
         <f>[1]값목록!A153</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B154" s="1">
         <f>[1]값목록!B153</f>
@@ -3847,13 +3541,13 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="str">
+      <c r="A155" s="1">
         <f>[1]값목록!A154</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B155" s="1">
         <f>[1]값목록!B154</f>
@@ -3861,13 +3555,13 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="str">
+      <c r="A156" s="1">
         <f>[1]값목록!A155</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B156" s="1">
         <f>[1]값목록!B155</f>
@@ -3875,13 +3569,13 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="str">
+      <c r="A157" s="1">
         <f>[1]값목록!A156</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B157" s="1">
         <f>[1]값목록!B156</f>
@@ -3889,13 +3583,13 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="str">
+      <c r="A158" s="1">
         <f>[1]값목록!A157</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B158" s="1">
         <f>[1]값목록!B157</f>
@@ -3903,13 +3597,13 @@
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="str">
+      <c r="A159" s="1">
         <f>[1]값목록!A158</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B159" s="1">
         <f>[1]값목록!B158</f>
@@ -3917,13 +3611,13 @@
       </c>
       <c r="C159" t="str">
         <f>A159&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="str">
+      <c r="A160" s="1">
         <f>[1]값목록!A159</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="B160" s="1">
         <f>[1]값목록!B159</f>
@@ -3931,7 +3625,7 @@
       </c>
       <c r="C160" t="str">
         <f t="shared" ref="C160" si="6">A160&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>0.pdf</v>
       </c>
     </row>
   </sheetData>

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C937BA-2A32-429B-B180-2F14EE1C7A3A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA07784D-56BE-43E8-A7B6-EC34ECD06FF5}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2385" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>userid</t>
   </si>
@@ -128,6 +128,24 @@
   <si>
     <t>53103</t>
   </si>
+  <si>
+    <t>김성관</t>
+  </si>
+  <si>
+    <t>69287</t>
+  </si>
+  <si>
+    <t>김현수</t>
+  </si>
+  <si>
+    <t>49066</t>
+  </si>
+  <si>
+    <t>박완규</t>
+  </si>
+  <si>
+    <t>45276</t>
+  </si>
 </sst>
 </file>
 
@@ -365,24 +383,6 @@
             <v>71319</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="A35"/>
-          <cell r="B35" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36"/>
-          <cell r="B36" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37"/>
-          <cell r="B37" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
         <row r="38">
           <cell r="A38"/>
           <cell r="B38" t="e">
@@ -1120,6 +1120,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,8 +1414,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1879,45 +1883,39 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f>[1]값목록!A35</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="e">
-        <f>[1]값목록!B35</f>
-        <v>#N/A</v>
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>김성관.pdf</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <f>[1]값목록!A36</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="e">
-        <f>[1]값목록!B36</f>
-        <v>#N/A</v>
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>김현수.pdf</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <f>[1]값목록!A37</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="e">
-        <f>[1]값목록!B37</f>
-        <v>#N/A</v>
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>박완규.pdf</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA07784D-56BE-43E8-A7B6-EC34ECD06FF5}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54A4DDE-44A3-468F-8CC7-23CA59E0032F}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>userid</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>45276</t>
+  </si>
+  <si>
+    <t>송영옥</t>
+  </si>
+  <si>
+    <t>40707</t>
+  </si>
+  <si>
+    <t>한상철</t>
+  </si>
+  <si>
+    <t>54990</t>
+  </si>
+  <si>
+    <t>김재근</t>
+  </si>
+  <si>
+    <t>21143</t>
   </si>
 </sst>
 </file>
@@ -381,24 +399,6 @@
           </cell>
           <cell r="B20" t="str">
             <v>71319</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38"/>
-          <cell r="B38" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39"/>
-          <cell r="B39" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40"/>
-          <cell r="B40" t="e">
-            <v>#N/A</v>
           </cell>
         </row>
         <row r="41">
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1919,45 +1919,39 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <f>[1]값목록!A38</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="e">
-        <f>[1]값목록!B38</f>
-        <v>#N/A</v>
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>송영옥.pdf</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <f>[1]값목록!A39</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="e">
-        <f>[1]값목록!B39</f>
-        <v>#N/A</v>
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>한상철.pdf</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f>[1]값목록!A40</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="e">
-        <f>[1]값목록!B40</f>
-        <v>#N/A</v>
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>김재근.pdf</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54A4DDE-44A3-468F-8CC7-23CA59E0032F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBFFA93-AB07-4E22-AE8E-CE863407ED17}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="1815" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>userid</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>21143</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>23091</t>
+  </si>
+  <si>
+    <t>이공준</t>
+  </si>
+  <si>
+    <t>35033</t>
   </si>
 </sst>
 </file>
@@ -399,18 +411,6 @@
           </cell>
           <cell r="B20" t="str">
             <v>71319</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41"/>
-          <cell r="B41" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42"/>
-          <cell r="B42" t="e">
-            <v>#N/A</v>
           </cell>
         </row>
         <row r="43">
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1955,31 +1955,27 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <f>[1]값목록!A41</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="e">
-        <f>[1]값목록!B41</f>
-        <v>#N/A</v>
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>안재경.pdf</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <f>[1]값목록!A42</f>
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="e">
-        <f>[1]값목록!B42</f>
-        <v>#N/A</v>
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>0.pdf</v>
+        <v>이공준.pdf</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24CE0029-ECA7-47AF-A0FB-F11C911B400A}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E5CD72-1D82-4ADA-AD34-BE671339E2A6}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>userid</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>33415</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>35168</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1313,11 +1319,15 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김은주.pdf</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E5CD72-1D82-4ADA-AD34-BE671339E2A6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EEF1B1-24F1-4D82-8E3E-E779C6F363E7}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>userid</t>
   </si>
@@ -193,6 +193,42 @@
   </si>
   <si>
     <t>35168</t>
+  </si>
+  <si>
+    <t>김용조</t>
+  </si>
+  <si>
+    <t>42977</t>
+  </si>
+  <si>
+    <t>박노면</t>
+  </si>
+  <si>
+    <t>26030</t>
+  </si>
+  <si>
+    <t>우상민</t>
+  </si>
+  <si>
+    <t>61710</t>
+  </si>
+  <si>
+    <t>김선자</t>
+  </si>
+  <si>
+    <t>21338</t>
+  </si>
+  <si>
+    <t>홍성태</t>
+  </si>
+  <si>
+    <t>41100</t>
+  </si>
+  <si>
+    <t>김경희</t>
+  </si>
+  <si>
+    <t>42254</t>
   </si>
 </sst>
 </file>
@@ -730,8 +766,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1331,51 +1367,75 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김용조.pdf</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>박노면.pdf</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>우상민.pdf</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김선자.pdf</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>홍성태.pdf</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김경희.pdf</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EEF1B1-24F1-4D82-8E3E-E779C6F363E7}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88550B09-3ADF-489B-B375-F51DF60156AA}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>userid</t>
   </si>
@@ -229,6 +229,33 @@
   </si>
   <si>
     <t>42254</t>
+  </si>
+  <si>
+    <t>정태흥</t>
+  </si>
+  <si>
+    <t>29464</t>
+  </si>
+  <si>
+    <t>최두나</t>
+  </si>
+  <si>
+    <t>이지훈</t>
+  </si>
+  <si>
+    <t>80660</t>
+  </si>
+  <si>
+    <t>최정홍</t>
+  </si>
+  <si>
+    <t>47588</t>
+  </si>
+  <si>
+    <t>이상곤</t>
+  </si>
+  <si>
+    <t>37422</t>
   </si>
 </sst>
 </file>
@@ -767,7 +794,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1439,43 +1466,63 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>정태흥.pdf</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="1">
+        <v>50436</v>
+      </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>최두나.pdf</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>이지훈.pdf</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>최정홍.pdf</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>이상곤.pdf</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88550B09-3ADF-489B-B375-F51DF60156AA}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258233D6-9074-43D1-8E29-CC0757A5EEA5}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>userid</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>37422</t>
+  </si>
+  <si>
+    <t>안상오</t>
+  </si>
+  <si>
+    <t>19448</t>
   </si>
 </sst>
 </file>
@@ -298,10 +304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +803,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1526,11 +1535,15 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>안상오.pdf</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258233D6-9074-43D1-8E29-CC0757A5EEA5}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0600DEE-10DD-4276-909D-A389DAA2D5A8}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>userid</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>19448</t>
+  </si>
+  <si>
+    <t>류해원</t>
+  </si>
+  <si>
+    <t>42348</t>
   </si>
 </sst>
 </file>
@@ -803,7 +809,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1547,11 +1553,15 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>류해원.pdf</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0600DEE-10DD-4276-909D-A389DAA2D5A8}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC595A1-EFD8-499A-A422-EE12AD28BDD9}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>userid</t>
   </si>
@@ -268,13 +268,17 @@
   </si>
   <si>
     <t>42348</t>
+  </si>
+  <si>
+    <t>김한섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +290,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -808,8 +819,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1565,11 +1576,15 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1">
+        <v>84083</v>
+      </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김한섭.pdf</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC595A1-EFD8-499A-A422-EE12AD28BDD9}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C192DD-1323-45FB-A19D-A8D223249E1B}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>userid</t>
   </si>
@@ -272,6 +272,12 @@
   <si>
     <t>김한섭</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박웅</t>
+  </si>
+  <si>
+    <t>62768</t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1588,11 +1594,15 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>박웅.pdf</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C192DD-1323-45FB-A19D-A8D223249E1B}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369D3B9F-881F-4A52-A447-13E675350204}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="2310" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>userid</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>62768</t>
+  </si>
+  <si>
+    <t>권영신</t>
+  </si>
+  <si>
+    <t>18711</t>
+  </si>
+  <si>
+    <t>박수민</t>
+  </si>
+  <si>
+    <t>31875</t>
   </si>
 </sst>
 </file>
@@ -825,8 +837,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1606,19 +1618,27 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>권영신.pdf</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>박수민.pdf</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369D3B9F-881F-4A52-A447-13E675350204}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9762E312-7232-47FF-A63E-F4605BA60CBC}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2310" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>userid</t>
   </si>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>31875</t>
+  </si>
+  <si>
+    <t>김민혜</t>
+  </si>
+  <si>
+    <t>61795</t>
+  </si>
+  <si>
+    <t>김광수</t>
+  </si>
+  <si>
+    <t>27267</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,19 +1654,27 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김민혜.pdf</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김광수.pdf</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">

--- a/users_2026_backup.xlsx
+++ b/users_2026_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9762E312-7232-47FF-A63E-F4605BA60CBC}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_2B59D2BFD320DC8176EC7B53541510344D078DDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229D25DE-340B-4432-86D8-A03D8515D2D2}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>userid</t>
   </si>
@@ -302,6 +302,33 @@
   </si>
   <si>
     <t>27267</t>
+  </si>
+  <si>
+    <t>김일환</t>
+  </si>
+  <si>
+    <t>42544</t>
+  </si>
+  <si>
+    <t>이정희</t>
+  </si>
+  <si>
+    <t>37487</t>
+  </si>
+  <si>
+    <t>박원규</t>
+  </si>
+  <si>
+    <t>14041</t>
+  </si>
+  <si>
+    <t>김기범</t>
+  </si>
+  <si>
+    <t>정상임</t>
+  </si>
+  <si>
+    <t>42580</t>
   </si>
 </sst>
 </file>
@@ -850,7 +877,7 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1678,43 +1705,63 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>김일환.pdf</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C67" t="str">
         <f>A67&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>이정희.pdf</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C68" t="str">
         <f t="shared" si="0"/>
-        <v>.pdf</v>
+        <v>박원규.pdf</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="1">
+        <v>39841</v>
+      </c>
       <c r="C69" t="str">
         <f t="shared" ref="C69:C81" si="1">A69&amp;".pdf"</f>
-        <v>.pdf</v>
+        <v>김기범.pdf</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>.pdf</v>
+        <v>정상임.pdf</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
